--- a/food_items.xlsx
+++ b/food_items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\expiration-alerts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D250661F-077F-4FD9-BDF6-BDE967196A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BF598B-A805-4896-8253-35CF9C5D6E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="4476" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>Expiration Date</t>
+  </si>
+  <si>
+    <t>Blackberries</t>
+  </si>
+  <si>
+    <t>Blueberries</t>
+  </si>
+  <si>
+    <t>Raspberries</t>
+  </si>
+  <si>
+    <t>Sugar Free Lavender Syrup</t>
   </si>
 </sst>
 </file>
@@ -433,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,7 +649,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="4">
         <v>45858</v>
@@ -646,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="5">
-        <v>45862</v>
+        <v>45880</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>11</v>
@@ -654,16 +666,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4">
         <v>45858</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
+      <c r="C13">
+        <v>6</v>
       </c>
       <c r="D13" s="5">
-        <v>45880</v>
+        <v>46053</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
@@ -671,16 +683,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4">
         <v>45858</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14" s="5">
-        <v>46053</v>
+        <v>46319</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
@@ -688,16 +700,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="4">
         <v>45858</v>
       </c>
-      <c r="C15">
-        <v>8</v>
+      <c r="C15" s="2">
+        <v>1</v>
       </c>
       <c r="D15" s="5">
-        <v>46319</v>
+        <v>45871</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>11</v>
@@ -705,16 +717,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="4">
         <v>45858</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D16" s="5">
-        <v>45871</v>
+        <v>45920</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>11</v>
@@ -722,16 +734,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17" s="4">
         <v>45858</v>
       </c>
       <c r="C17" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D17" s="5">
-        <v>45920</v>
+        <v>45875</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>11</v>
@@ -739,16 +751,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4">
         <v>45858</v>
       </c>
       <c r="C18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="5">
-        <v>45875</v>
+        <v>46381</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>11</v>
@@ -756,7 +768,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="4">
         <v>45858</v>
@@ -765,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="5">
-        <v>46381</v>
+        <v>46149</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>11</v>
@@ -773,18 +785,86 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20" s="4">
-        <v>45858</v>
+        <v>45862</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="5">
-        <v>46149</v>
+        <v>45864</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="4">
+        <v>45862</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>45864</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="4">
+        <v>45862</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
+        <v>45864</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="4">
+        <v>45862</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
+        <v>45864</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="4">
+        <v>45862</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>45864</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/food_items.xlsx
+++ b/food_items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\expiration-alerts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam.carrera\Documents\Code\python\expiration-alerts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BF598B-A805-4896-8253-35CF9C5D6E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B421AB-F532-4C39-B654-C3C722CF89B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>Sugar Free Lavender Syrup</t>
+  </si>
+  <si>
+    <t>Prego Pasta Sauce</t>
+  </si>
+  <si>
+    <t>Hu Cashew Butter Dark Chocolate</t>
+  </si>
+  <si>
+    <t>Barilla Bow Tie Protein Pasta</t>
   </si>
 </sst>
 </file>
@@ -150,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -164,7 +173,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,23 +459,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -477,8 +491,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4">
@@ -494,8 +508,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4">
@@ -511,8 +525,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4">
@@ -528,8 +542,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4">
@@ -545,8 +559,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4">
@@ -562,8 +576,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4">
@@ -579,8 +593,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="4">
@@ -596,8 +610,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="4">
@@ -613,26 +627,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="4">
-        <v>45856</v>
+        <v>45858</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="4">
-        <v>45914</v>
+      <c r="D10" s="5">
+        <v>45880</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B11" s="4">
         <v>45858</v>
@@ -647,111 +661,111 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B12" s="4">
         <v>45858</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
+      <c r="C12" s="6">
+        <v>6</v>
       </c>
       <c r="D12" s="5">
-        <v>45880</v>
+        <v>46053</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B13" s="4">
         <v>45858</v>
       </c>
-      <c r="C13">
-        <v>6</v>
+      <c r="C13" s="6">
+        <v>8</v>
       </c>
       <c r="D13" s="5">
-        <v>46053</v>
+        <v>46319</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B14" s="4">
         <v>45858</v>
       </c>
-      <c r="C14">
-        <v>8</v>
+      <c r="C14" s="2">
+        <v>1</v>
       </c>
       <c r="D14" s="5">
-        <v>46319</v>
+        <v>45871</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B15" s="4">
         <v>45858</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D15" s="5">
-        <v>45871</v>
+        <v>45920</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B16" s="4">
         <v>45858</v>
       </c>
       <c r="C16" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D16" s="5">
-        <v>45920</v>
+        <v>45875</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B17" s="4">
         <v>45858</v>
       </c>
       <c r="C17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="5">
-        <v>45875</v>
+        <v>46381</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B18" s="4">
         <v>45858</v>
@@ -760,38 +774,38 @@
         <v>1</v>
       </c>
       <c r="D18" s="5">
-        <v>46381</v>
+        <v>46149</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B19" s="4">
-        <v>45858</v>
+        <v>45862</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="5">
-        <v>46149</v>
+        <v>45864</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>26</v>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B20" s="4">
         <v>45862</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="5">
         <v>45864</v>
@@ -800,9 +814,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>27</v>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B21" s="4">
         <v>45862</v>
@@ -817,9 +831,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>28</v>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B22" s="4">
         <v>45862</v>
@@ -834,9 +848,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>16</v>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B23" s="4">
         <v>45862</v>
@@ -851,20 +865,71 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>29</v>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B24" s="4">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="5">
-        <v>45864</v>
+        <v>45898</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="4">
+        <v>45866</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <v>46290</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="4">
+        <v>45866</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3</v>
+      </c>
+      <c r="D26" s="5">
+        <v>46367</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="4">
+        <v>45866</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>46569</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>11</v>
       </c>
     </row>
